--- a/src/test/Receipt_Clear.xlsx
+++ b/src/test/Receipt_Clear.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="33">
   <si>
     <t>Execute</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>0 Min and 2 sec</t>
+  </si>
+  <si>
+    <t>11/09/2024</t>
+  </si>
+  <si>
+    <t>0 Min and 5 sec</t>
   </si>
 </sst>
 </file>
@@ -140,7 +146,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * \-??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -181,6 +187,18 @@
       <sz val="11"/>
       <color indexed="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="1"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="1"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -293,7 +311,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -318,6 +336,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -731,14 +755,14 @@
       <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s" s="11">
+      <c r="D2" t="s" s="13">
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>

--- a/src/test/Receipt_Clear.xlsx
+++ b/src/test/Receipt_Clear.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="33">
   <si>
     <t>Execute</t>
   </si>
@@ -146,7 +146,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * \-??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -187,6 +187,12 @@
       <sz val="11"/>
       <color indexed="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="1"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -311,7 +317,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -342,6 +348,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -755,11 +764,11 @@
       <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s" s="13">
+      <c r="D2" t="s" s="14">
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
         <v>31</v>
